--- a/pedidos.xlsx
+++ b/pedidos.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Pedidos" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -402,7 +402,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -435,7 +435,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Senha</t>
+          <t>Referência</t>
         </is>
       </c>
     </row>
